--- a/config/project/Integrate_120KW/IntegrateConfig.xlsx
+++ b/config/project/Integrate_120KW/IntegrateConfig.xlsx
@@ -3763,6 +3763,18 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3815,18 +3827,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4189,7 +4189,7 @@
   <dimension ref="A1:G163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E159" sqref="E159"/>
+      <selection activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4527,11 +4527,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="135"/>
-      <c r="B15" s="135" t="s">
+      <c r="A15" s="139"/>
+      <c r="B15" s="139" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="135" t="s">
+      <c r="C15" s="139" t="s">
         <v>110</v>
       </c>
       <c r="D15" s="20">
@@ -4548,9 +4548,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="132"/>
-      <c r="B16" s="132"/>
-      <c r="C16" s="132"/>
+      <c r="A16" s="136"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="136"/>
       <c r="D16" s="20">
         <v>15</v>
       </c>
@@ -4565,9 +4565,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="132"/>
-      <c r="B17" s="132"/>
-      <c r="C17" s="132"/>
+      <c r="A17" s="136"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="136"/>
       <c r="D17" s="20">
         <v>16</v>
       </c>
@@ -4582,9 +4582,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="132"/>
-      <c r="B18" s="132"/>
-      <c r="C18" s="132"/>
+      <c r="A18" s="136"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
       <c r="D18" s="20">
         <v>17</v>
       </c>
@@ -4599,9 +4599,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="132"/>
-      <c r="B19" s="132"/>
-      <c r="C19" s="132"/>
+      <c r="A19" s="136"/>
+      <c r="B19" s="136"/>
+      <c r="C19" s="136"/>
       <c r="D19" s="20">
         <v>18</v>
       </c>
@@ -4662,11 +4662,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="141"/>
-      <c r="B22" s="141" t="s">
+      <c r="A22" s="145"/>
+      <c r="B22" s="145" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="141" t="s">
+      <c r="C22" s="145" t="s">
         <v>127</v>
       </c>
       <c r="D22" s="20">
@@ -4683,9 +4683,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="137"/>
-      <c r="B23" s="137"/>
-      <c r="C23" s="137"/>
+      <c r="A23" s="141"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="141"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
@@ -4700,9 +4700,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="137"/>
-      <c r="B24" s="137"/>
-      <c r="C24" s="137"/>
+      <c r="A24" s="141"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="141"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
@@ -4717,9 +4717,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="137"/>
-      <c r="B25" s="137"/>
-      <c r="C25" s="137"/>
+      <c r="A25" s="141"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="141"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
@@ -4734,9 +4734,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="142"/>
-      <c r="B26" s="142"/>
-      <c r="C26" s="142"/>
+      <c r="A26" s="146"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="146"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
@@ -4793,11 +4793,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="143"/>
-      <c r="B29" s="146" t="s">
+      <c r="A29" s="147"/>
+      <c r="B29" s="150" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="146" t="s">
+      <c r="C29" s="150" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
@@ -4814,9 +4814,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="144"/>
-      <c r="B30" s="144"/>
-      <c r="C30" s="144"/>
+      <c r="A30" s="148"/>
+      <c r="B30" s="148"/>
+      <c r="C30" s="148"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
@@ -4831,9 +4831,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="144"/>
-      <c r="B31" s="144"/>
-      <c r="C31" s="144"/>
+      <c r="A31" s="148"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="148"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
@@ -4848,9 +4848,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="144"/>
-      <c r="B32" s="144"/>
-      <c r="C32" s="144"/>
+      <c r="A32" s="148"/>
+      <c r="B32" s="148"/>
+      <c r="C32" s="148"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
@@ -4865,9 +4865,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="145"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="145"/>
+      <c r="A33" s="149"/>
+      <c r="B33" s="149"/>
+      <c r="C33" s="149"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
@@ -4882,11 +4882,11 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="132"/>
-      <c r="B34" s="132" t="s">
+      <c r="A34" s="136"/>
+      <c r="B34" s="136" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="132" t="s">
+      <c r="C34" s="136" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="20">
@@ -4903,9 +4903,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="132"/>
-      <c r="B35" s="132"/>
-      <c r="C35" s="132"/>
+      <c r="A35" s="136"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="136"/>
       <c r="D35" s="20">
         <v>34</v>
       </c>
@@ -4920,11 +4920,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="132"/>
-      <c r="B36" s="132" t="s">
+      <c r="A36" s="136"/>
+      <c r="B36" s="136" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="135" t="s">
+      <c r="C36" s="139" t="s">
         <v>148</v>
       </c>
       <c r="D36" s="20">
@@ -4941,9 +4941,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="132"/>
-      <c r="B37" s="132"/>
-      <c r="C37" s="132"/>
+      <c r="A37" s="136"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="136"/>
       <c r="D37" s="20">
         <v>36</v>
       </c>
@@ -4958,11 +4958,11 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="132"/>
-      <c r="B38" s="138" t="s">
+      <c r="A38" s="136"/>
+      <c r="B38" s="142" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="138" t="s">
+      <c r="C38" s="142" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
@@ -4979,9 +4979,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="132"/>
-      <c r="B39" s="132"/>
-      <c r="C39" s="132"/>
+      <c r="A39" s="136"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="136"/>
       <c r="D39" s="20">
         <v>38</v>
       </c>
@@ -4996,11 +4996,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="132"/>
-      <c r="B40" s="132" t="s">
+      <c r="A40" s="136"/>
+      <c r="B40" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="138" t="s">
+      <c r="C40" s="142" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -5017,9 +5017,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="132"/>
-      <c r="B41" s="132"/>
-      <c r="C41" s="132"/>
+      <c r="A41" s="136"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="136"/>
       <c r="D41" s="20">
         <v>40</v>
       </c>
@@ -5034,9 +5034,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="132"/>
-      <c r="B42" s="132"/>
-      <c r="C42" s="132"/>
+      <c r="A42" s="136"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="136"/>
       <c r="D42" s="20">
         <v>41</v>
       </c>
@@ -5051,9 +5051,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="132"/>
-      <c r="B43" s="132"/>
-      <c r="C43" s="132"/>
+      <c r="A43" s="136"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="136"/>
       <c r="D43" s="20">
         <v>42</v>
       </c>
@@ -5068,9 +5068,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="132"/>
-      <c r="B44" s="132"/>
-      <c r="C44" s="132"/>
+      <c r="A44" s="136"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="136"/>
       <c r="D44" s="20">
         <v>43</v>
       </c>
@@ -5085,11 +5085,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="132">
+      <c r="A45" s="136">
         <v>13</v>
       </c>
-      <c r="B45" s="132"/>
-      <c r="C45" s="132" t="s">
+      <c r="B45" s="136"/>
+      <c r="C45" s="136" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="20">
@@ -5169,11 +5169,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="149"/>
-      <c r="B49" s="139" t="s">
+      <c r="A49" s="153"/>
+      <c r="B49" s="143" t="s">
         <v>198</v>
       </c>
-      <c r="C49" s="140" t="s">
+      <c r="C49" s="144" t="s">
         <v>287</v>
       </c>
       <c r="D49" s="20">
@@ -5190,9 +5190,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="132"/>
-      <c r="B50" s="132"/>
-      <c r="C50" s="132"/>
+      <c r="A50" s="136"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="136"/>
       <c r="D50" s="20">
         <v>49</v>
       </c>
@@ -5207,9 +5207,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="132"/>
-      <c r="B51" s="132"/>
-      <c r="C51" s="132"/>
+      <c r="A51" s="136"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="136"/>
       <c r="D51" s="20">
         <v>50</v>
       </c>
@@ -5308,11 +5308,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="141"/>
-      <c r="B56" s="136" t="s">
+      <c r="A56" s="145"/>
+      <c r="B56" s="140" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="141" t="s">
+      <c r="C56" s="145" t="s">
         <v>131</v>
       </c>
       <c r="D56" s="20">
@@ -5329,9 +5329,9 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="137"/>
-      <c r="B57" s="137"/>
-      <c r="C57" s="137"/>
+      <c r="A57" s="141"/>
+      <c r="B57" s="141"/>
+      <c r="C57" s="141"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
@@ -5346,9 +5346,9 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="137"/>
-      <c r="B58" s="137"/>
-      <c r="C58" s="137"/>
+      <c r="A58" s="141"/>
+      <c r="B58" s="141"/>
+      <c r="C58" s="141"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
@@ -5363,9 +5363,9 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="137"/>
-      <c r="B59" s="137"/>
-      <c r="C59" s="137"/>
+      <c r="A59" s="141"/>
+      <c r="B59" s="141"/>
+      <c r="C59" s="141"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
@@ -5380,9 +5380,9 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="137"/>
-      <c r="B60" s="137"/>
-      <c r="C60" s="137"/>
+      <c r="A60" s="141"/>
+      <c r="B60" s="141"/>
+      <c r="C60" s="141"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
@@ -5397,9 +5397,9 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="137"/>
-      <c r="B61" s="137"/>
-      <c r="C61" s="137"/>
+      <c r="A61" s="141"/>
+      <c r="B61" s="141"/>
+      <c r="C61" s="141"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
@@ -5414,9 +5414,9 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="137"/>
-      <c r="B62" s="137"/>
-      <c r="C62" s="137"/>
+      <c r="A62" s="141"/>
+      <c r="B62" s="141"/>
+      <c r="C62" s="141"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
@@ -5473,11 +5473,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="149"/>
-      <c r="B65" s="139" t="s">
+      <c r="A65" s="153"/>
+      <c r="B65" s="143" t="s">
         <v>199</v>
       </c>
-      <c r="C65" s="140" t="s">
+      <c r="C65" s="144" t="s">
         <v>287</v>
       </c>
       <c r="D65" s="20">
@@ -5494,9 +5494,9 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="132"/>
-      <c r="B66" s="132"/>
-      <c r="C66" s="132"/>
+      <c r="A66" s="136"/>
+      <c r="B66" s="136"/>
+      <c r="C66" s="136"/>
       <c r="D66" s="20">
         <v>65</v>
       </c>
@@ -5511,9 +5511,9 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="132"/>
-      <c r="B67" s="132"/>
-      <c r="C67" s="132"/>
+      <c r="A67" s="136"/>
+      <c r="B67" s="136"/>
+      <c r="C67" s="136"/>
       <c r="D67" s="20">
         <v>66</v>
       </c>
@@ -5612,11 +5612,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="141"/>
-      <c r="B72" s="136" t="s">
+      <c r="A72" s="145"/>
+      <c r="B72" s="140" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="141" t="s">
+      <c r="C72" s="145" t="s">
         <v>131</v>
       </c>
       <c r="D72" s="20">
@@ -5633,9 +5633,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="137"/>
-      <c r="B73" s="137"/>
-      <c r="C73" s="137"/>
+      <c r="A73" s="141"/>
+      <c r="B73" s="141"/>
+      <c r="C73" s="141"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
@@ -5650,9 +5650,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="137"/>
-      <c r="B74" s="137"/>
-      <c r="C74" s="137"/>
+      <c r="A74" s="141"/>
+      <c r="B74" s="141"/>
+      <c r="C74" s="141"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
@@ -5667,9 +5667,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="137"/>
-      <c r="B75" s="137"/>
-      <c r="C75" s="137"/>
+      <c r="A75" s="141"/>
+      <c r="B75" s="141"/>
+      <c r="C75" s="141"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
@@ -5684,9 +5684,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="137"/>
-      <c r="B76" s="137"/>
-      <c r="C76" s="137"/>
+      <c r="A76" s="141"/>
+      <c r="B76" s="141"/>
+      <c r="C76" s="141"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
@@ -5701,9 +5701,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="137"/>
-      <c r="B77" s="137"/>
-      <c r="C77" s="137"/>
+      <c r="A77" s="141"/>
+      <c r="B77" s="141"/>
+      <c r="C77" s="141"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
@@ -5718,9 +5718,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="137"/>
-      <c r="B78" s="137"/>
-      <c r="C78" s="137"/>
+      <c r="A78" s="141"/>
+      <c r="B78" s="141"/>
+      <c r="C78" s="141"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
@@ -5777,11 +5777,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="135"/>
-      <c r="B81" s="135" t="s">
+      <c r="A81" s="139"/>
+      <c r="B81" s="139" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="138" t="s">
+      <c r="C81" s="142" t="s">
         <v>58</v>
       </c>
       <c r="D81" s="20">
@@ -5798,9 +5798,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="132"/>
-      <c r="B82" s="132"/>
-      <c r="C82" s="132"/>
+      <c r="A82" s="136"/>
+      <c r="B82" s="136"/>
+      <c r="C82" s="136"/>
       <c r="D82" s="20">
         <v>81</v>
       </c>
@@ -5815,9 +5815,9 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="132"/>
-      <c r="B83" s="132"/>
-      <c r="C83" s="132"/>
+      <c r="A83" s="136"/>
+      <c r="B83" s="136"/>
+      <c r="C83" s="136"/>
       <c r="D83" s="20">
         <v>82</v>
       </c>
@@ -5832,9 +5832,9 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="132"/>
-      <c r="B84" s="132"/>
-      <c r="C84" s="132"/>
+      <c r="A84" s="136"/>
+      <c r="B84" s="136"/>
+      <c r="C84" s="136"/>
       <c r="D84" s="20">
         <v>83</v>
       </c>
@@ -6143,11 +6143,11 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="147"/>
-      <c r="B99" s="147" t="s">
+      <c r="A99" s="151"/>
+      <c r="B99" s="151" t="s">
         <v>297</v>
       </c>
-      <c r="C99" s="147" t="s">
+      <c r="C99" s="151" t="s">
         <v>76</v>
       </c>
       <c r="D99" s="83">
@@ -6164,9 +6164,9 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="147"/>
-      <c r="B100" s="147"/>
-      <c r="C100" s="147"/>
+      <c r="A100" s="151"/>
+      <c r="B100" s="151"/>
+      <c r="C100" s="151"/>
       <c r="D100" s="83">
         <v>99</v>
       </c>
@@ -6181,9 +6181,9 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="147"/>
-      <c r="B101" s="147"/>
-      <c r="C101" s="147"/>
+      <c r="A101" s="151"/>
+      <c r="B101" s="151"/>
+      <c r="C101" s="151"/>
       <c r="D101" s="83">
         <v>100</v>
       </c>
@@ -6219,11 +6219,11 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="147"/>
-      <c r="B103" s="147" t="s">
+      <c r="A103" s="151"/>
+      <c r="B103" s="151" t="s">
         <v>299</v>
       </c>
-      <c r="C103" s="147" t="s">
+      <c r="C103" s="151" t="s">
         <v>58</v>
       </c>
       <c r="D103" s="78">
@@ -6240,9 +6240,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="148"/>
-      <c r="B104" s="148"/>
-      <c r="C104" s="148"/>
+      <c r="A104" s="152"/>
+      <c r="B104" s="152"/>
+      <c r="C104" s="152"/>
       <c r="D104" s="78">
         <v>103</v>
       </c>
@@ -6257,9 +6257,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="148"/>
-      <c r="B105" s="148"/>
-      <c r="C105" s="148"/>
+      <c r="A105" s="152"/>
+      <c r="B105" s="152"/>
+      <c r="C105" s="152"/>
       <c r="D105" s="78">
         <v>104</v>
       </c>
@@ -7261,11 +7261,11 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="134"/>
-      <c r="B153" s="133" t="s">
+      <c r="A153" s="138"/>
+      <c r="B153" s="137" t="s">
         <v>459</v>
       </c>
-      <c r="C153" s="132" t="s">
+      <c r="C153" s="136" t="s">
         <v>458</v>
       </c>
       <c r="D153" s="125">
@@ -7282,9 +7282,9 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="134"/>
-      <c r="B154" s="134"/>
-      <c r="C154" s="132"/>
+      <c r="A154" s="138"/>
+      <c r="B154" s="138"/>
+      <c r="C154" s="136"/>
       <c r="D154" s="125">
         <v>153</v>
       </c>
@@ -7299,9 +7299,9 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="134"/>
-      <c r="B155" s="134"/>
-      <c r="C155" s="132"/>
+      <c r="A155" s="138"/>
+      <c r="B155" s="138"/>
+      <c r="C155" s="136"/>
       <c r="D155" s="125">
         <v>154</v>
       </c>
@@ -7316,17 +7316,17 @@
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="150"/>
-      <c r="B156" s="151" t="s">
+      <c r="A156" s="132"/>
+      <c r="B156" s="133" t="s">
         <v>472</v>
       </c>
-      <c r="C156" s="152" t="s">
+      <c r="C156" s="134" t="s">
         <v>480</v>
       </c>
-      <c r="D156" s="153">
+      <c r="D156" s="135">
         <v>155</v>
       </c>
-      <c r="E156" s="151" t="s">
+      <c r="E156" s="133" t="s">
         <v>472</v>
       </c>
       <c r="F156" s="131" t="s">
@@ -7337,17 +7337,17 @@
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="150"/>
-      <c r="B157" s="151" t="s">
+      <c r="A157" s="132"/>
+      <c r="B157" s="133" t="s">
         <v>473</v>
       </c>
-      <c r="C157" s="152" t="s">
+      <c r="C157" s="134" t="s">
         <v>480</v>
       </c>
-      <c r="D157" s="153">
+      <c r="D157" s="135">
         <v>156</v>
       </c>
-      <c r="E157" s="151" t="s">
+      <c r="E157" s="133" t="s">
         <v>473</v>
       </c>
       <c r="F157" s="131" t="s">
@@ -7358,17 +7358,17 @@
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="150"/>
-      <c r="B158" s="151" t="s">
+      <c r="A158" s="132"/>
+      <c r="B158" s="133" t="s">
         <v>474</v>
       </c>
-      <c r="C158" s="152" t="s">
+      <c r="C158" s="134" t="s">
         <v>480</v>
       </c>
-      <c r="D158" s="153">
+      <c r="D158" s="135">
         <v>157</v>
       </c>
-      <c r="E158" s="151" t="s">
+      <c r="E158" s="133" t="s">
         <v>474</v>
       </c>
       <c r="F158" s="131" t="s">
@@ -7379,17 +7379,17 @@
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="150"/>
-      <c r="B159" s="151" t="s">
+      <c r="A159" s="132"/>
+      <c r="B159" s="133" t="s">
         <v>475</v>
       </c>
-      <c r="C159" s="152" t="s">
+      <c r="C159" s="134" t="s">
         <v>480</v>
       </c>
-      <c r="D159" s="153">
+      <c r="D159" s="135">
         <v>158</v>
       </c>
-      <c r="E159" s="151" t="s">
+      <c r="E159" s="133" t="s">
         <v>475</v>
       </c>
       <c r="F159" s="131" t="s">
@@ -7400,17 +7400,17 @@
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="150"/>
-      <c r="B160" s="151" t="s">
+      <c r="A160" s="132"/>
+      <c r="B160" s="133" t="s">
         <v>476</v>
       </c>
-      <c r="C160" s="152" t="s">
+      <c r="C160" s="134" t="s">
         <v>480</v>
       </c>
-      <c r="D160" s="153">
+      <c r="D160" s="135">
         <v>159</v>
       </c>
-      <c r="E160" s="151" t="s">
+      <c r="E160" s="133" t="s">
         <v>476</v>
       </c>
       <c r="F160" s="131" t="s">
@@ -7421,17 +7421,17 @@
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="150"/>
-      <c r="B161" s="151" t="s">
+      <c r="A161" s="132"/>
+      <c r="B161" s="133" t="s">
         <v>477</v>
       </c>
-      <c r="C161" s="152" t="s">
+      <c r="C161" s="134" t="s">
         <v>480</v>
       </c>
-      <c r="D161" s="153">
+      <c r="D161" s="135">
         <v>160</v>
       </c>
-      <c r="E161" s="151" t="s">
+      <c r="E161" s="133" t="s">
         <v>477</v>
       </c>
       <c r="F161" s="131" t="s">
@@ -7442,17 +7442,17 @@
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="150"/>
-      <c r="B162" s="151" t="s">
+      <c r="A162" s="132"/>
+      <c r="B162" s="133" t="s">
         <v>478</v>
       </c>
-      <c r="C162" s="152" t="s">
+      <c r="C162" s="134" t="s">
         <v>480</v>
       </c>
-      <c r="D162" s="153">
+      <c r="D162" s="135">
         <v>161</v>
       </c>
-      <c r="E162" s="151" t="s">
+      <c r="E162" s="133" t="s">
         <v>478</v>
       </c>
       <c r="F162" s="131" t="s">
@@ -7463,17 +7463,17 @@
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="150"/>
-      <c r="B163" s="151" t="s">
+      <c r="A163" s="132"/>
+      <c r="B163" s="133" t="s">
         <v>479</v>
       </c>
-      <c r="C163" s="152" t="s">
+      <c r="C163" s="134" t="s">
         <v>480</v>
       </c>
-      <c r="D163" s="153">
+      <c r="D163" s="135">
         <v>162</v>
       </c>
-      <c r="E163" s="151" t="s">
+      <c r="E163" s="133" t="s">
         <v>479</v>
       </c>
       <c r="F163" s="131" t="s">
@@ -8987,8 +8987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:A80"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -10611,7 +10611,7 @@
   <dimension ref="A1:AB41"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="82" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:A41"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -11980,7 +11980,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
         <v>410</v>
       </c>
@@ -11991,7 +11991,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="93" t="s">
         <v>472</v>
       </c>
@@ -12001,8 +12001,11 @@
       <c r="C34" s="96" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>98315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="93" t="s">
         <v>473</v>
       </c>
@@ -12012,8 +12015,11 @@
       <c r="C35" s="96" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>163851</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="93" t="s">
         <v>474</v>
       </c>
@@ -12023,8 +12029,11 @@
       <c r="C36" s="96" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>294923</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="93" t="s">
         <v>475</v>
       </c>
@@ -12034,8 +12043,11 @@
       <c r="C37" s="96" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>557067</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="93" t="s">
         <v>476</v>
       </c>
@@ -12046,7 +12058,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="93" t="s">
         <v>477</v>
       </c>
@@ -12057,7 +12069,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="93" t="s">
         <v>478</v>
       </c>
@@ -12068,7 +12080,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="93" t="s">
         <v>479</v>
       </c>

--- a/config/project/Integrate_120KW/IntegrateConfig.xlsx
+++ b/config/project/Integrate_120KW/IntegrateConfig.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="506">
   <si>
     <t>组序号</t>
   </si>
@@ -58,15 +58,15 @@
   </si>
   <si>
     <t>resistance</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -82,39 +82,39 @@
       </rPr>
       <t>YPE</t>
     </r>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>UPPER</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>LOWER</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>RTIM</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>TTIM</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>ARC</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>WTIM</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>RAMP</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>RANG</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -130,107 +130,107 @@
       </rPr>
       <t>R</t>
     </r>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>VOLT(KV)</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>FTIM</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>FREQ(HZ)</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>DCW</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V绝缘电阻</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对DC12V工频耐压</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE绝缘电阻</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对PE工频耐压</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>DC12V对模块输出铜牌绝缘电阻</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>DC12V输出对PE绝缘电阻</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE绝缘电阻</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>模块输出铜牌对PE工频耐压</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE工频耐压</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>枪输出对PE绝缘电阻</t>
-    <phoneticPr fontId="51" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对地，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">合上塑壳断路器、2P\1P断路器，关闭4P断路器，ABCN相连对地耐压2500V，60秒，漏电流不大于10mA
 （ACW M2，AC 2.5kV?,10.00mA,60s）
 </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">DC12V正负端用短接线短路，ABCN用短接线短路
 ABCN相连对DC12V正负端短接，耐压DC1500V，60秒，漏电流不大于10mA（DCW M1，DC1.5kV,10.00mA,60s）
 </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>ABCN相连对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M3，AC 1KV)</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>DC12V正负端短接对96/97/98/99/TP1/TP2/TP3/TP4相连，绝缘电阻应大于10M欧(IR M4，0.5KV)</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">拆开华为模块CAN线
 DC12V正负端短接对地，绝缘电阻应大于10M欧(IR M4，0.5KV)
 </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">96/97/98/99/TP1/TP2/TP3/TP4相连对地，绝缘电阻应大于10M欧(IR M4，1KV) </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -293,15 +293,15 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>电表2</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>硬件自检</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>group</t>
@@ -320,62 +320,62 @@
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>paramCheck</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>硬件时钟</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>铁电存储</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>FLASH存储</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
   </si>
   <si>
     <t>枪1电表通讯</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表通讯</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>GPRS拨号</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点1</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪1温度检测温度点2</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点1</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪2温度检测温度点2</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>温度检测</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>插座电压</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -391,7 +391,7 @@
       </rPr>
       <t>efault</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -407,7 +407,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -423,71 +423,71 @@
       </rPr>
       <t>20V</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>显示模块检查</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>看门狗检查</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>整机功耗</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -503,27 +503,27 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>热交换机检测</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>交流复位</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>BI</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>BO</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>参数名</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -539,7 +539,7 @@
       </rPr>
       <t>I掩码</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -555,222 +555,222 @@
       </rPr>
       <t>O掩码</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>组名称</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>操作前检查</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>门接地柱对地</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>控制器对地</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>内门、内架PE对地</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>插座PE对地</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪PE对地</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>不大于0.1欧</t>
   </si>
   <si>
     <t>不大于0.1欧</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>接地电阻</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪1二维码</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪2二维码</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>装置编号</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>桩编号</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>升级控制盒程序</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>显示模块及语音检查</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>软件版本检查</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>控制板BOOT版本</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT版本</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>DCM_BOOT应用软件版本</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>控制板应用软件版本</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>充电模块版本核对</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>模块1版本</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>模块2版本</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>时间设置</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>scan</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪2电池反接告警</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>inverseWarn</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>insulation</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>charging</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>正常</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪1直流充电模块工作状态</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电流</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电压</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪1电表电能量</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电流</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电压</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪1面板电能量</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>0x00000002</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>装置型号</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>电表时间</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>1枪电表时间</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2枪电表时间</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>装置时间</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>断电后装置时间</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>timeSet</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>0xC0000000</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>请拔掉枪，马上做泄放</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -786,158 +786,158 @@
       </rPr>
       <t>elay</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Relay</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电流</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电压</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪2电表电能量</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪2直流充电模块工作状态</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电流</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电压</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪2面板电能量</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>请把1枪插入BMS模拟器</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>继电器操作</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>StubCmd</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>参数校正</t>
   </si>
   <si>
     <t>编译时间</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>是否连接正式平台</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘检测结果</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘检测结果</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>合上30关闭29</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>合上30合上29</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>断开30断开29</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>0x30000002</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>0x20000002</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>1枪调试启动充电</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>1枪调试停止充电</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2枪调试启动充电</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2枪调试停止充电</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘电阻正</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘电阻负</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘电阻正</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘电阻负</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪前测量值</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪后测量值</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪前测量值</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪链接电压</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪链接电压</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪后测量值</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪1插枪链接电压</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪2插枪链接电压</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -970,7 +970,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1003,7 +1003,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1029,7 +1029,7 @@
       </rPr>
       <t>120A</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1055,7 +1055,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1081,7 +1081,7 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1107,15 +1107,15 @@
       </rPr>
       <t>120A</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪1功率分配</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪2功率分配</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>避雷器反馈</t>
@@ -1137,7 +1137,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1153,7 +1153,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1169,7 +1169,7 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1185,7 +1185,7 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1201,11 +1201,11 @@
       </rPr>
       <t>4</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>备用</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1221,7 +1221,7 @@
       </rPr>
       <t>5K6</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1237,15 +1237,15 @@
       </rPr>
       <t>9K10</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>门禁开关</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>急停反馈</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1261,111 +1261,111 @@
       </rPr>
       <t>7K8</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>枪1电子锁反馈</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>枪2电子锁反馈</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>0x0018</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>0x0118</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>0x1118</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>0x0060</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>请按下急停按钮</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>0x0260</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>0x1260</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>门节点</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>防雷器</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>StubCmd</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>打开门</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>关闭门</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>设置防雷器告警</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>设置防雷器不告警</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>按下急停按钮</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>不按下急停按钮</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>门闭合状态</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>门打开状态</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>防雷器告警状态</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>防雷器正常状态</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>true_</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>false_</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1381,87 +1381,87 @@
       </rPr>
       <t>nlock</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于拔出状态</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于拔出状态</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态，且充电流程没启动，如果启动，按枪1急停按钮停止</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态，且充电流程没启动，如果启动，按枪1急停按钮停止</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪2电池反接告警</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态，且充电流程没启动，如果启动，按枪2急停按钮停止</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态，且充电流程没启动，如果启动，按枪2急停按钮停止</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>确保枪2处于入插入状态，且充电流程没启动，如果启动，按枪2急停按钮停止，测试完成把枪拔出</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>确保枪1处于入插入状态，且充电流程没启动，如果启动，按枪1急停按钮停止，测试完成把枪拔出</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1477,31 +1477,31 @@
       </rPr>
       <t>看门狗短路插片JP2升完程序后不安装 2控制器贴有已检标记 3 各部件贴有“PASS”标识 4整机有经过品管进行整机工艺检查并贴有已检标记 5 大电流端子、交流接触器、电表、断路器贴有已检标记</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>参数校正</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>参数矫正时候，请确保没有插入枪</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>泄放电路</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>请确保没有插枪，并且已经断电</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮按下</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮未按下</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1517,43 +1517,43 @@
       </rPr>
       <t>PP测试</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>掩码</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>0xFFFFFFFF</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>APP枪1测试</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>APP枪2测试</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>0x00000000</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>组测试前继电器操作掩码</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>组测试后继电器操作掩码</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1569,7 +1569,7 @@
       </rPr>
       <t>I</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1585,18 +1585,18 @@
       </rPr>
       <t>O</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>DO单一控制标志</t>
   </si>
   <si>
     <t>交流接触器KM控制</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>充电枪1的电子锁通电时间控制</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1612,7 +1612,7 @@
       </rPr>
       <t>K1K2</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1628,11 +1628,11 @@
       </rPr>
       <t>K3K4</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>充电枪2的电子锁通电时间控制</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1648,7 +1648,7 @@
       </rPr>
       <t>K1K2</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1664,43 +1664,43 @@
       </rPr>
       <t>K3K4</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>PowerDistribute</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>K5K6</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>K7K8</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>K9K10</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>K1K2</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>K3K4</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>0x0100</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>0x1000</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>0x0800</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1716,95 +1716,95 @@
       </rPr>
       <t>IBO</t>
     </r>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>sim卡采集</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>sim卡编号采集</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>设备信息</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>铭牌编号</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>资产编号</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>显示板号</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪型号记录</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>直流挡板</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>铭牌</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>看门狗插片</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>K60看门狗</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>显示盖板</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>CtrlBoxSet</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>控制盒编号</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>控制盒编号</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>1枪K1K2控制</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>1枪K3K4控制</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>1枪K5K6控制</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>K7K8控制</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2枪K1K2控制</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2枪K3K4控制</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2枪K9K10控制</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>电源模块1</t>
@@ -1832,271 +1832,271 @@
   </si>
   <si>
     <t>1枪K1反馈</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>1枪K2反馈</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2枪K1反馈</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>2枪K2反馈</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>KM1反馈</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>KM2反馈</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>K5K6反馈</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>K9K10反馈</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>K7K8反馈</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>KM控制</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>DO单一控制标志</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪1K1K2</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>枪2K1K2</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>0x0200</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>0x0018</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>0x0060</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>0x0100</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>0x1000</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>0x0200</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>PowerModule</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>电源模块1</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>电源模块1</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>电源模块4</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>电源模块6_1</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>电源模块6_2</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>电源模块2</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>电源模块3</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>电源模块5</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>继电器断开K5_K7_K9</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>继电器断开K6_K8_K10</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>断开K5,K7,K9,闭合K6,K8,K10</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>断开K6,K8,K10,闭合K5,K7,K9</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>继电器1枪K1K2闭合</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>继电器1枪K1K2断开</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>继电器2枪K1K2闭合</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>继电器2枪K1K2断开</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>继电器K5K6_K5断开_K6闭合</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>继电器K5K6_K5闭合_K6断开</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>继电器K5K6_K5闭合_K6闭合</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>继电器K5K6_K5断开_K6断开</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>继电器K7K8_K7断开_K8闭合</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>继电器K7K8_K7闭合_K8断开</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>继电器K7K8_K7闭合_K8闭合</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>继电器K7K8_K7断开_K8断开</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>继电器K9K10_K9断开_K10断开</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>继电器K9K10_K9断开_K10闭合</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>继电器K9K10_K9闭合_K10断开</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>继电器K9K10_K9闭合_K10闭合</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>模块控制</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>模块1</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>模块2</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>模块3</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>模块4</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>模块5</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>模块6</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>0x088103</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>0x108103</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>0x208403</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>0x048023</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>0x01800B</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>0x02800B</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>0x208063</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>1枪绝缘检测控制</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>2枪绝缘检测控制</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>0x0001</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2112,23 +2112,23 @@
       </rPr>
       <t>080B</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>0x2103</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>枪1泄放</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>枪2泄放</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>断开交流接触器</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2144,87 +2144,87 @@
       </rPr>
       <t>A</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>断开交流接触器</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>0x0001</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>0x010003</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>0x1029</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>0x4501</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>K5</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>K6</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>K7</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>K8</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>K9</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>K10</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>0x0009</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>0x0101</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>1枪K1</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>1枪K2</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>2枪K1</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>2枪K2</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>0x0008</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>0x0010</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>0x0010</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2240,39 +2240,39 @@
       </rPr>
       <t>x0021</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>0x0041</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>0x0401</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>1枪K3</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>1枪K4</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>2枪K3</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>2枪K4</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>0x0020</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>0x0040</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2288,179 +2288,179 @@
       </rPr>
       <t>IBO</t>
     </r>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>1枪K1-触点</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>1枪K2-触点</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>2枪K1-触点</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>2枪K2-触点</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>1枪K3-触点</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>1枪K4-触点</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>2枪K3-触点</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>2枪K4-触点</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>K5-触点</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>K6-触点</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>K7-触点</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>K8-触点</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>K9-触点</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>K10-触点</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>断开所有继电器</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>断开所有继电器</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>上电</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>断电</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>电源模块6(电表1)</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>电源模块6(电表2)</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>0x0000</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>0x0000</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>gunSelect</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>断开网络</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>NetWorkCheck</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>枪1启动类型</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>枪2启动类型</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>paramSet</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>基本配置检查</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>模块7</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>模块8</t>
-    <phoneticPr fontId="57" type="noConversion"/>
+    <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
     <t>0x010003</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>0x01800B</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>0x02800B</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>0x04800B</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>0x08800B</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>0x108103</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>0x208103</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>0x408103</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>0x808103</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>120KW_电源模块1</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>120KW_电源模块2</t>
@@ -2485,18 +2485,122 @@
   </si>
   <si>
     <t>PowerModule_120KW</t>
+  </si>
+  <si>
+    <t>120KW_麦格米特电源模块1</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>120KW_麦格米特电源模块2</t>
+  </si>
+  <si>
+    <t>120KW_麦格米特电源模块3</t>
+  </si>
+  <si>
+    <t>120KW_麦格米特电源模块4</t>
+  </si>
+  <si>
+    <t>0x048103</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x088103</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>功率分配</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块厂家</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>单枪模块个数</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块功率</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块额定电流</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块最小输出电压</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块最大输出电压</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦格米特电源模块设置</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>950</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>英可瑞电源模块设置</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="36" type="noConversion"/>
+  </si>
+  <si>
+    <t>44</t>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="60" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3268,565 +3372,583 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="43" applyFill="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="43" applyFill="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="43" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="43" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="43" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="48" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4186,10 +4308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G163"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B156" sqref="B156"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="85" workbookViewId="0">
+      <selection activeCell="F175" sqref="F175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4527,11 +4649,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="139"/>
-      <c r="B15" s="139" t="s">
+      <c r="A15" s="155"/>
+      <c r="B15" s="155" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="139" t="s">
+      <c r="C15" s="155" t="s">
         <v>110</v>
       </c>
       <c r="D15" s="20">
@@ -4548,9 +4670,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="136"/>
-      <c r="B16" s="136"/>
-      <c r="C16" s="136"/>
+      <c r="A16" s="149"/>
+      <c r="B16" s="149"/>
+      <c r="C16" s="149"/>
       <c r="D16" s="20">
         <v>15</v>
       </c>
@@ -4565,9 +4687,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="136"/>
-      <c r="B17" s="136"/>
-      <c r="C17" s="136"/>
+      <c r="A17" s="149"/>
+      <c r="B17" s="149"/>
+      <c r="C17" s="149"/>
       <c r="D17" s="20">
         <v>16</v>
       </c>
@@ -4582,9 +4704,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="136"/>
-      <c r="B18" s="136"/>
-      <c r="C18" s="136"/>
+      <c r="A18" s="149"/>
+      <c r="B18" s="149"/>
+      <c r="C18" s="149"/>
       <c r="D18" s="20">
         <v>17</v>
       </c>
@@ -4599,9 +4721,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="136"/>
-      <c r="B19" s="136"/>
-      <c r="C19" s="136"/>
+      <c r="A19" s="149"/>
+      <c r="B19" s="149"/>
+      <c r="C19" s="149"/>
       <c r="D19" s="20">
         <v>18</v>
       </c>
@@ -4662,11 +4784,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="145"/>
-      <c r="B22" s="145" t="s">
+      <c r="A22" s="151"/>
+      <c r="B22" s="151" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="145" t="s">
+      <c r="C22" s="151" t="s">
         <v>127</v>
       </c>
       <c r="D22" s="20">
@@ -4683,9 +4805,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="141"/>
-      <c r="B23" s="141"/>
-      <c r="C23" s="141"/>
+      <c r="A23" s="143"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="143"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
@@ -4700,9 +4822,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="141"/>
-      <c r="B24" s="141"/>
-      <c r="C24" s="141"/>
+      <c r="A24" s="143"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="143"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
@@ -4717,9 +4839,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="141"/>
-      <c r="B25" s="141"/>
-      <c r="C25" s="141"/>
+      <c r="A25" s="143"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="143"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
@@ -4734,9 +4856,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="146"/>
-      <c r="B26" s="146"/>
-      <c r="C26" s="146"/>
+      <c r="A26" s="144"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="144"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
@@ -4793,11 +4915,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="147"/>
-      <c r="B29" s="150" t="s">
+      <c r="A29" s="159"/>
+      <c r="B29" s="156" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="150" t="s">
+      <c r="C29" s="156" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
@@ -4814,9 +4936,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="148"/>
-      <c r="B30" s="148"/>
-      <c r="C30" s="148"/>
+      <c r="A30" s="157"/>
+      <c r="B30" s="157"/>
+      <c r="C30" s="157"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
@@ -4831,9 +4953,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="148"/>
-      <c r="B31" s="148"/>
-      <c r="C31" s="148"/>
+      <c r="A31" s="157"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="157"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
@@ -4848,9 +4970,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="148"/>
-      <c r="B32" s="148"/>
-      <c r="C32" s="148"/>
+      <c r="A32" s="157"/>
+      <c r="B32" s="157"/>
+      <c r="C32" s="157"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
@@ -4865,9 +4987,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="149"/>
-      <c r="B33" s="149"/>
-      <c r="C33" s="149"/>
+      <c r="A33" s="158"/>
+      <c r="B33" s="158"/>
+      <c r="C33" s="158"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
@@ -4882,11 +5004,11 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="136"/>
-      <c r="B34" s="136" t="s">
+      <c r="A34" s="149"/>
+      <c r="B34" s="149" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="136" t="s">
+      <c r="C34" s="149" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="20">
@@ -4903,9 +5025,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="136"/>
-      <c r="B35" s="136"/>
-      <c r="C35" s="136"/>
+      <c r="A35" s="149"/>
+      <c r="B35" s="149"/>
+      <c r="C35" s="149"/>
       <c r="D35" s="20">
         <v>34</v>
       </c>
@@ -4920,11 +5042,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="136"/>
-      <c r="B36" s="136" t="s">
+      <c r="A36" s="149"/>
+      <c r="B36" s="149" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="139" t="s">
+      <c r="C36" s="155" t="s">
         <v>148</v>
       </c>
       <c r="D36" s="20">
@@ -4941,9 +5063,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="136"/>
-      <c r="B37" s="136"/>
-      <c r="C37" s="136"/>
+      <c r="A37" s="149"/>
+      <c r="B37" s="149"/>
+      <c r="C37" s="149"/>
       <c r="D37" s="20">
         <v>36</v>
       </c>
@@ -4958,11 +5080,11 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="136"/>
-      <c r="B38" s="142" t="s">
+      <c r="A38" s="149"/>
+      <c r="B38" s="154" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="142" t="s">
+      <c r="C38" s="154" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
@@ -4979,9 +5101,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="136"/>
-      <c r="B39" s="136"/>
-      <c r="C39" s="136"/>
+      <c r="A39" s="149"/>
+      <c r="B39" s="149"/>
+      <c r="C39" s="149"/>
       <c r="D39" s="20">
         <v>38</v>
       </c>
@@ -4996,11 +5118,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="136"/>
-      <c r="B40" s="136" t="s">
+      <c r="A40" s="149"/>
+      <c r="B40" s="149" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="142" t="s">
+      <c r="C40" s="154" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -5017,9 +5139,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="136"/>
-      <c r="B41" s="136"/>
-      <c r="C41" s="136"/>
+      <c r="A41" s="149"/>
+      <c r="B41" s="149"/>
+      <c r="C41" s="149"/>
       <c r="D41" s="20">
         <v>40</v>
       </c>
@@ -5034,9 +5156,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="136"/>
-      <c r="B42" s="136"/>
-      <c r="C42" s="136"/>
+      <c r="A42" s="149"/>
+      <c r="B42" s="149"/>
+      <c r="C42" s="149"/>
       <c r="D42" s="20">
         <v>41</v>
       </c>
@@ -5051,9 +5173,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="136"/>
-      <c r="B43" s="136"/>
-      <c r="C43" s="136"/>
+      <c r="A43" s="149"/>
+      <c r="B43" s="149"/>
+      <c r="C43" s="149"/>
       <c r="D43" s="20">
         <v>42</v>
       </c>
@@ -5068,9 +5190,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="136"/>
-      <c r="B44" s="136"/>
-      <c r="C44" s="136"/>
+      <c r="A44" s="149"/>
+      <c r="B44" s="149"/>
+      <c r="C44" s="149"/>
       <c r="D44" s="20">
         <v>43</v>
       </c>
@@ -5085,11 +5207,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="136">
+      <c r="A45" s="149">
         <v>13</v>
       </c>
-      <c r="B45" s="136"/>
-      <c r="C45" s="136" t="s">
+      <c r="B45" s="149"/>
+      <c r="C45" s="149" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="20">
@@ -5169,11 +5291,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="153"/>
-      <c r="B49" s="143" t="s">
+      <c r="A49" s="150"/>
+      <c r="B49" s="152" t="s">
         <v>198</v>
       </c>
-      <c r="C49" s="144" t="s">
+      <c r="C49" s="153" t="s">
         <v>287</v>
       </c>
       <c r="D49" s="20">
@@ -5190,9 +5312,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="136"/>
-      <c r="B50" s="136"/>
-      <c r="C50" s="136"/>
+      <c r="A50" s="149"/>
+      <c r="B50" s="149"/>
+      <c r="C50" s="149"/>
       <c r="D50" s="20">
         <v>49</v>
       </c>
@@ -5207,9 +5329,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="136"/>
-      <c r="B51" s="136"/>
-      <c r="C51" s="136"/>
+      <c r="A51" s="149"/>
+      <c r="B51" s="149"/>
+      <c r="C51" s="149"/>
       <c r="D51" s="20">
         <v>50</v>
       </c>
@@ -5308,11 +5430,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="145"/>
-      <c r="B56" s="140" t="s">
+      <c r="A56" s="151"/>
+      <c r="B56" s="142" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="145" t="s">
+      <c r="C56" s="151" t="s">
         <v>131</v>
       </c>
       <c r="D56" s="20">
@@ -5329,9 +5451,9 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="141"/>
-      <c r="B57" s="141"/>
-      <c r="C57" s="141"/>
+      <c r="A57" s="143"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="143"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
@@ -5346,9 +5468,9 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="141"/>
-      <c r="B58" s="141"/>
-      <c r="C58" s="141"/>
+      <c r="A58" s="143"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="143"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
@@ -5363,9 +5485,9 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="141"/>
-      <c r="B59" s="141"/>
-      <c r="C59" s="141"/>
+      <c r="A59" s="143"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="143"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
@@ -5380,9 +5502,9 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="141"/>
-      <c r="B60" s="141"/>
-      <c r="C60" s="141"/>
+      <c r="A60" s="143"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="143"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
@@ -5397,9 +5519,9 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="141"/>
-      <c r="B61" s="141"/>
-      <c r="C61" s="141"/>
+      <c r="A61" s="143"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="143"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
@@ -5414,9 +5536,9 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="141"/>
-      <c r="B62" s="141"/>
-      <c r="C62" s="141"/>
+      <c r="A62" s="143"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="143"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
@@ -5473,11 +5595,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="153"/>
-      <c r="B65" s="143" t="s">
+      <c r="A65" s="150"/>
+      <c r="B65" s="152" t="s">
         <v>199</v>
       </c>
-      <c r="C65" s="144" t="s">
+      <c r="C65" s="153" t="s">
         <v>287</v>
       </c>
       <c r="D65" s="20">
@@ -5494,9 +5616,9 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="136"/>
-      <c r="B66" s="136"/>
-      <c r="C66" s="136"/>
+      <c r="A66" s="149"/>
+      <c r="B66" s="149"/>
+      <c r="C66" s="149"/>
       <c r="D66" s="20">
         <v>65</v>
       </c>
@@ -5511,9 +5633,9 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="136"/>
-      <c r="B67" s="136"/>
-      <c r="C67" s="136"/>
+      <c r="A67" s="149"/>
+      <c r="B67" s="149"/>
+      <c r="C67" s="149"/>
       <c r="D67" s="20">
         <v>66</v>
       </c>
@@ -5612,11 +5734,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="145"/>
-      <c r="B72" s="140" t="s">
+      <c r="A72" s="151"/>
+      <c r="B72" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="145" t="s">
+      <c r="C72" s="151" t="s">
         <v>131</v>
       </c>
       <c r="D72" s="20">
@@ -5633,9 +5755,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="141"/>
-      <c r="B73" s="141"/>
-      <c r="C73" s="141"/>
+      <c r="A73" s="143"/>
+      <c r="B73" s="143"/>
+      <c r="C73" s="143"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
@@ -5650,9 +5772,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="141"/>
-      <c r="B74" s="141"/>
-      <c r="C74" s="141"/>
+      <c r="A74" s="143"/>
+      <c r="B74" s="143"/>
+      <c r="C74" s="143"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
@@ -5667,9 +5789,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="141"/>
-      <c r="B75" s="141"/>
-      <c r="C75" s="141"/>
+      <c r="A75" s="143"/>
+      <c r="B75" s="143"/>
+      <c r="C75" s="143"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
@@ -5684,9 +5806,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="141"/>
-      <c r="B76" s="141"/>
-      <c r="C76" s="141"/>
+      <c r="A76" s="143"/>
+      <c r="B76" s="143"/>
+      <c r="C76" s="143"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
@@ -5701,9 +5823,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="141"/>
-      <c r="B77" s="141"/>
-      <c r="C77" s="141"/>
+      <c r="A77" s="143"/>
+      <c r="B77" s="143"/>
+      <c r="C77" s="143"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
@@ -5718,9 +5840,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="141"/>
-      <c r="B78" s="141"/>
-      <c r="C78" s="141"/>
+      <c r="A78" s="143"/>
+      <c r="B78" s="143"/>
+      <c r="C78" s="143"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
@@ -5777,11 +5899,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="139"/>
-      <c r="B81" s="139" t="s">
+      <c r="A81" s="155"/>
+      <c r="B81" s="155" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="142" t="s">
+      <c r="C81" s="154" t="s">
         <v>58</v>
       </c>
       <c r="D81" s="20">
@@ -5798,9 +5920,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="136"/>
-      <c r="B82" s="136"/>
-      <c r="C82" s="136"/>
+      <c r="A82" s="149"/>
+      <c r="B82" s="149"/>
+      <c r="C82" s="149"/>
       <c r="D82" s="20">
         <v>81</v>
       </c>
@@ -5815,9 +5937,9 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="136"/>
-      <c r="B83" s="136"/>
-      <c r="C83" s="136"/>
+      <c r="A83" s="149"/>
+      <c r="B83" s="149"/>
+      <c r="C83" s="149"/>
       <c r="D83" s="20">
         <v>82</v>
       </c>
@@ -5832,9 +5954,9 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="136"/>
-      <c r="B84" s="136"/>
-      <c r="C84" s="136"/>
+      <c r="A84" s="149"/>
+      <c r="B84" s="149"/>
+      <c r="C84" s="149"/>
       <c r="D84" s="20">
         <v>83</v>
       </c>
@@ -6143,11 +6265,11 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="151"/>
-      <c r="B99" s="151" t="s">
+      <c r="A99" s="147"/>
+      <c r="B99" s="147" t="s">
         <v>297</v>
       </c>
-      <c r="C99" s="151" t="s">
+      <c r="C99" s="147" t="s">
         <v>76</v>
       </c>
       <c r="D99" s="83">
@@ -6164,9 +6286,9 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="151"/>
-      <c r="B100" s="151"/>
-      <c r="C100" s="151"/>
+      <c r="A100" s="147"/>
+      <c r="B100" s="147"/>
+      <c r="C100" s="147"/>
       <c r="D100" s="83">
         <v>99</v>
       </c>
@@ -6181,9 +6303,9 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="151"/>
-      <c r="B101" s="151"/>
-      <c r="C101" s="151"/>
+      <c r="A101" s="147"/>
+      <c r="B101" s="147"/>
+      <c r="C101" s="147"/>
       <c r="D101" s="83">
         <v>100</v>
       </c>
@@ -6219,11 +6341,11 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="151"/>
-      <c r="B103" s="151" t="s">
+      <c r="A103" s="147"/>
+      <c r="B103" s="147" t="s">
         <v>299</v>
       </c>
-      <c r="C103" s="151" t="s">
+      <c r="C103" s="147" t="s">
         <v>58</v>
       </c>
       <c r="D103" s="78">
@@ -6240,9 +6362,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="152"/>
-      <c r="B104" s="152"/>
-      <c r="C104" s="152"/>
+      <c r="A104" s="148"/>
+      <c r="B104" s="148"/>
+      <c r="C104" s="148"/>
       <c r="D104" s="78">
         <v>103</v>
       </c>
@@ -6257,9 +6379,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="152"/>
-      <c r="B105" s="152"/>
-      <c r="C105" s="152"/>
+      <c r="A105" s="148"/>
+      <c r="B105" s="148"/>
+      <c r="C105" s="148"/>
       <c r="D105" s="78">
         <v>104</v>
       </c>
@@ -7261,11 +7383,11 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="138"/>
-      <c r="B153" s="137" t="s">
+      <c r="A153" s="161"/>
+      <c r="B153" s="160" t="s">
         <v>459</v>
       </c>
-      <c r="C153" s="136" t="s">
+      <c r="C153" s="149" t="s">
         <v>458</v>
       </c>
       <c r="D153" s="125">
@@ -7282,9 +7404,9 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="138"/>
-      <c r="B154" s="138"/>
-      <c r="C154" s="136"/>
+      <c r="A154" s="161"/>
+      <c r="B154" s="161"/>
+      <c r="C154" s="149"/>
       <c r="D154" s="125">
         <v>153</v>
       </c>
@@ -7299,9 +7421,9 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="138"/>
-      <c r="B155" s="138"/>
-      <c r="C155" s="136"/>
+      <c r="A155" s="161"/>
+      <c r="B155" s="161"/>
+      <c r="C155" s="149"/>
       <c r="D155" s="125">
         <v>154</v>
       </c>
@@ -7329,8 +7451,8 @@
       <c r="E156" s="133" t="s">
         <v>472</v>
       </c>
-      <c r="F156" s="131" t="s">
-        <v>73</v>
+      <c r="F156" s="137" t="s">
+        <v>49</v>
       </c>
       <c r="G156" s="131">
         <v>300</v>
@@ -7350,8 +7472,8 @@
       <c r="E157" s="133" t="s">
         <v>473</v>
       </c>
-      <c r="F157" s="131" t="s">
-        <v>73</v>
+      <c r="F157" s="137" t="s">
+        <v>49</v>
       </c>
       <c r="G157" s="131">
         <v>300</v>
@@ -7371,8 +7493,8 @@
       <c r="E158" s="133" t="s">
         <v>474</v>
       </c>
-      <c r="F158" s="131" t="s">
-        <v>73</v>
+      <c r="F158" s="137" t="s">
+        <v>49</v>
       </c>
       <c r="G158" s="131">
         <v>300</v>
@@ -7392,8 +7514,8 @@
       <c r="E159" s="133" t="s">
         <v>475</v>
       </c>
-      <c r="F159" s="131" t="s">
-        <v>73</v>
+      <c r="F159" s="137" t="s">
+        <v>49</v>
       </c>
       <c r="G159" s="131">
         <v>300</v>
@@ -7413,8 +7535,8 @@
       <c r="E160" s="133" t="s">
         <v>476</v>
       </c>
-      <c r="F160" s="131" t="s">
-        <v>73</v>
+      <c r="F160" s="137" t="s">
+        <v>50</v>
       </c>
       <c r="G160" s="131">
         <v>300</v>
@@ -7434,8 +7556,8 @@
       <c r="E161" s="133" t="s">
         <v>477</v>
       </c>
-      <c r="F161" s="131" t="s">
-        <v>73</v>
+      <c r="F161" s="137" t="s">
+        <v>50</v>
       </c>
       <c r="G161" s="131">
         <v>300</v>
@@ -7455,8 +7577,8 @@
       <c r="E162" s="133" t="s">
         <v>478</v>
       </c>
-      <c r="F162" s="131" t="s">
-        <v>73</v>
+      <c r="F162" s="137" t="s">
+        <v>50</v>
       </c>
       <c r="G162" s="131">
         <v>300</v>
@@ -7476,28 +7598,357 @@
       <c r="E163" s="133" t="s">
         <v>479</v>
       </c>
-      <c r="F163" s="131" t="s">
-        <v>73</v>
+      <c r="F163" s="137" t="s">
+        <v>50</v>
       </c>
       <c r="G163" s="131">
         <v>300</v>
       </c>
     </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="132"/>
+      <c r="B164" s="133" t="s">
+        <v>481</v>
+      </c>
+      <c r="C164" s="134" t="s">
+        <v>480</v>
+      </c>
+      <c r="D164" s="135">
+        <v>163</v>
+      </c>
+      <c r="E164" s="133" t="s">
+        <v>481</v>
+      </c>
+      <c r="F164" s="137" t="s">
+        <v>49</v>
+      </c>
+      <c r="G164" s="136">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="132"/>
+      <c r="B165" s="133" t="s">
+        <v>482</v>
+      </c>
+      <c r="C165" s="134" t="s">
+        <v>480</v>
+      </c>
+      <c r="D165" s="135">
+        <v>164</v>
+      </c>
+      <c r="E165" s="133" t="s">
+        <v>482</v>
+      </c>
+      <c r="F165" s="137" t="s">
+        <v>49</v>
+      </c>
+      <c r="G165" s="136">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="132"/>
+      <c r="B166" s="133" t="s">
+        <v>483</v>
+      </c>
+      <c r="C166" s="134" t="s">
+        <v>480</v>
+      </c>
+      <c r="D166" s="135">
+        <v>165</v>
+      </c>
+      <c r="E166" s="133" t="s">
+        <v>483</v>
+      </c>
+      <c r="F166" s="137" t="s">
+        <v>50</v>
+      </c>
+      <c r="G166" s="136">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="132"/>
+      <c r="B167" s="133" t="s">
+        <v>484</v>
+      </c>
+      <c r="C167" s="134" t="s">
+        <v>480</v>
+      </c>
+      <c r="D167" s="135">
+        <v>166</v>
+      </c>
+      <c r="E167" s="133" t="s">
+        <v>484</v>
+      </c>
+      <c r="F167" s="137" t="s">
+        <v>50</v>
+      </c>
+      <c r="G167" s="136">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="142"/>
+      <c r="B168" s="142" t="s">
+        <v>494</v>
+      </c>
+      <c r="C168" s="142" t="s">
+        <v>458</v>
+      </c>
+      <c r="D168" s="135">
+        <v>167</v>
+      </c>
+      <c r="E168" s="137" t="s">
+        <v>487</v>
+      </c>
+      <c r="F168" s="130" t="s">
+        <v>460</v>
+      </c>
+      <c r="G168" s="130" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="143"/>
+      <c r="B169" s="145"/>
+      <c r="C169" s="145"/>
+      <c r="D169" s="135">
+        <v>168</v>
+      </c>
+      <c r="E169" s="137" t="s">
+        <v>488</v>
+      </c>
+      <c r="F169" s="130" t="s">
+        <v>495</v>
+      </c>
+      <c r="G169" s="130" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="143"/>
+      <c r="B170" s="145"/>
+      <c r="C170" s="145"/>
+      <c r="D170" s="135">
+        <v>169</v>
+      </c>
+      <c r="E170" s="137" t="s">
+        <v>489</v>
+      </c>
+      <c r="F170" s="130" t="s">
+        <v>495</v>
+      </c>
+      <c r="G170" s="130" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="143"/>
+      <c r="B171" s="145"/>
+      <c r="C171" s="145"/>
+      <c r="D171" s="135">
+        <v>170</v>
+      </c>
+      <c r="E171" s="137" t="s">
+        <v>490</v>
+      </c>
+      <c r="F171" s="130" t="s">
+        <v>496</v>
+      </c>
+      <c r="G171" s="130" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="143"/>
+      <c r="B172" s="145"/>
+      <c r="C172" s="145"/>
+      <c r="D172" s="135">
+        <v>171</v>
+      </c>
+      <c r="E172" s="137" t="s">
+        <v>491</v>
+      </c>
+      <c r="F172" s="130" t="s">
+        <v>497</v>
+      </c>
+      <c r="G172" s="130" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="143"/>
+      <c r="B173" s="145"/>
+      <c r="C173" s="145"/>
+      <c r="D173" s="135">
+        <v>172</v>
+      </c>
+      <c r="E173" s="137" t="s">
+        <v>492</v>
+      </c>
+      <c r="F173" s="130" t="s">
+        <v>498</v>
+      </c>
+      <c r="G173" s="130" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="144"/>
+      <c r="B174" s="146"/>
+      <c r="C174" s="146"/>
+      <c r="D174" s="135">
+        <v>173</v>
+      </c>
+      <c r="E174" s="137" t="s">
+        <v>493</v>
+      </c>
+      <c r="F174" s="130" t="s">
+        <v>499</v>
+      </c>
+      <c r="G174" s="130" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="142"/>
+      <c r="B175" s="142" t="s">
+        <v>500</v>
+      </c>
+      <c r="C175" s="142" t="s">
+        <v>458</v>
+      </c>
+      <c r="D175" s="135">
+        <v>174</v>
+      </c>
+      <c r="E175" s="138" t="s">
+        <v>487</v>
+      </c>
+      <c r="F175" s="130" t="s">
+        <v>460</v>
+      </c>
+      <c r="G175" s="130" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="143"/>
+      <c r="B176" s="145"/>
+      <c r="C176" s="145"/>
+      <c r="D176" s="135">
+        <v>175</v>
+      </c>
+      <c r="E176" s="138" t="s">
+        <v>488</v>
+      </c>
+      <c r="F176" s="130" t="s">
+        <v>501</v>
+      </c>
+      <c r="G176" s="130" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="143"/>
+      <c r="B177" s="145"/>
+      <c r="C177" s="145"/>
+      <c r="D177" s="135">
+        <v>176</v>
+      </c>
+      <c r="E177" s="138" t="s">
+        <v>489</v>
+      </c>
+      <c r="F177" s="130" t="s">
+        <v>502</v>
+      </c>
+      <c r="G177" s="130" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="143"/>
+      <c r="B178" s="145"/>
+      <c r="C178" s="145"/>
+      <c r="D178" s="135">
+        <v>177</v>
+      </c>
+      <c r="E178" s="138" t="s">
+        <v>490</v>
+      </c>
+      <c r="F178" s="130" t="s">
+        <v>503</v>
+      </c>
+      <c r="G178" s="130" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="143"/>
+      <c r="B179" s="145"/>
+      <c r="C179" s="145"/>
+      <c r="D179" s="135">
+        <v>178</v>
+      </c>
+      <c r="E179" s="138" t="s">
+        <v>491</v>
+      </c>
+      <c r="F179" s="130" t="s">
+        <v>505</v>
+      </c>
+      <c r="G179" s="130" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="143"/>
+      <c r="B180" s="145"/>
+      <c r="C180" s="145"/>
+      <c r="D180" s="135">
+        <v>179</v>
+      </c>
+      <c r="E180" s="138" t="s">
+        <v>492</v>
+      </c>
+      <c r="F180" s="130" t="s">
+        <v>498</v>
+      </c>
+      <c r="G180" s="130" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="144"/>
+      <c r="B181" s="146"/>
+      <c r="C181" s="146"/>
+      <c r="D181" s="135">
+        <v>180</v>
+      </c>
+      <c r="E181" s="138" t="s">
+        <v>493</v>
+      </c>
+      <c r="F181" s="130" t="s">
+        <v>504</v>
+      </c>
+      <c r="G181" s="130" t="s">
+        <v>504</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="B72:B78"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C40:C45"/>
+  <mergeCells count="51">
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="C38:C39"/>
     <mergeCell ref="C99:C101"/>
     <mergeCell ref="B99:B101"/>
     <mergeCell ref="A99:A101"/>
@@ -7514,24 +7965,31 @@
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="B72:B78"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C72:C78"/>
+    <mergeCell ref="A175:A181"/>
+    <mergeCell ref="B175:B181"/>
+    <mergeCell ref="C175:C181"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A168:A174"/>
+    <mergeCell ref="B168:B174"/>
+    <mergeCell ref="C168:C174"/>
     <mergeCell ref="C153:C155"/>
     <mergeCell ref="B153:B155"/>
     <mergeCell ref="A153:A155"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C72:C78"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="B81:B84"/>
   </mergeCells>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -7885,7 +8343,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8343,7 +8801,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -8464,7 +8922,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8977,7 +9435,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="51" type="noConversion"/>
+  <phoneticPr fontId="52" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8985,10 +9443,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -10599,8 +11057,148 @@
         <v>0</v>
       </c>
     </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="139" t="s">
+        <v>487</v>
+      </c>
+      <c r="B81" s="140">
+        <v>0</v>
+      </c>
+      <c r="C81" s="141">
+        <v>14</v>
+      </c>
+      <c r="D81" s="140">
+        <v>0</v>
+      </c>
+      <c r="E81" s="140">
+        <v>0</v>
+      </c>
+      <c r="F81" s="140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="139" t="s">
+        <v>488</v>
+      </c>
+      <c r="B82" s="140">
+        <v>0</v>
+      </c>
+      <c r="C82" s="141">
+        <v>14</v>
+      </c>
+      <c r="D82" s="140">
+        <v>0</v>
+      </c>
+      <c r="E82" s="140">
+        <v>1</v>
+      </c>
+      <c r="F82" s="140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="139" t="s">
+        <v>489</v>
+      </c>
+      <c r="B83" s="140">
+        <v>0</v>
+      </c>
+      <c r="C83" s="141">
+        <v>14</v>
+      </c>
+      <c r="D83" s="140">
+        <v>0</v>
+      </c>
+      <c r="E83" s="140">
+        <v>2</v>
+      </c>
+      <c r="F83" s="140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="139" t="s">
+        <v>490</v>
+      </c>
+      <c r="B84" s="140">
+        <v>0</v>
+      </c>
+      <c r="C84" s="141">
+        <v>14</v>
+      </c>
+      <c r="D84" s="140">
+        <v>0</v>
+      </c>
+      <c r="E84" s="140">
+        <v>3</v>
+      </c>
+      <c r="F84" s="140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="139" t="s">
+        <v>491</v>
+      </c>
+      <c r="B85" s="140">
+        <v>0</v>
+      </c>
+      <c r="C85" s="141">
+        <v>14</v>
+      </c>
+      <c r="D85" s="140">
+        <v>0</v>
+      </c>
+      <c r="E85" s="140">
+        <v>4</v>
+      </c>
+      <c r="F85" s="140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="139" t="s">
+        <v>492</v>
+      </c>
+      <c r="B86" s="140">
+        <v>0</v>
+      </c>
+      <c r="C86" s="141">
+        <v>14</v>
+      </c>
+      <c r="D86" s="140">
+        <v>0</v>
+      </c>
+      <c r="E86" s="140">
+        <v>5</v>
+      </c>
+      <c r="F86" s="140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="139" t="s">
+        <v>493</v>
+      </c>
+      <c r="B87" s="140">
+        <v>0</v>
+      </c>
+      <c r="C87" s="141">
+        <v>14</v>
+      </c>
+      <c r="D87" s="140">
+        <v>0</v>
+      </c>
+      <c r="E87" s="140">
+        <v>6</v>
+      </c>
+      <c r="F87" s="140">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10608,10 +11206,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB41"/>
+  <dimension ref="A1:AB45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="82" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A25" zoomScale="82" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -12091,8 +12689,52 @@
         <v>471</v>
       </c>
     </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="133" t="s">
+        <v>481</v>
+      </c>
+      <c r="B42" s="96" t="s">
+        <v>463</v>
+      </c>
+      <c r="C42" s="96" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="133" t="s">
+        <v>482</v>
+      </c>
+      <c r="B43" s="96" t="s">
+        <v>463</v>
+      </c>
+      <c r="C43" s="96" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="133" t="s">
+        <v>483</v>
+      </c>
+      <c r="B44" s="96" t="s">
+        <v>463</v>
+      </c>
+      <c r="C44" s="72" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="133" t="s">
+        <v>484</v>
+      </c>
+      <c r="B45" s="96" t="s">
+        <v>463</v>
+      </c>
+      <c r="C45" s="72" t="s">
+        <v>486</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="57" type="noConversion"/>
+  <phoneticPr fontId="58" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
